--- a/Banco-dados/Dicionário de Dados.xlsx
+++ b/Banco-dados/Dicionário de Dados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranye\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranye\Documents\control-block\Banco-dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E5F010-57AD-4633-B158-AFFB39D242F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF193C03-2625-461F-8DC5-A9AEB884E64B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="74">
   <si>
     <t>Entidade</t>
   </si>
@@ -293,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -338,11 +338,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -382,6 +444,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,7 +745,7 @@
   <dimension ref="B1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,7 +1006,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
@@ -998,14 +1078,16 @@
       <c r="C18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="17" t="s">
         <v>44</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="11" t="s">
+      <c r="F18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="19" t="s">
         <v>33</v>
       </c>
       <c r="H18" s="11" t="s">
@@ -1019,7 +1101,7 @@
       <c r="C19" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="15" t="s">
         <v>45</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -1028,7 +1110,7 @@
       <c r="F19" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="12"/>
+      <c r="G19" s="16"/>
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1038,12 +1120,16 @@
       <c r="C20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="12"/>
+      <c r="E20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="16"/>
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1053,7 +1139,7 @@
       <c r="C21" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -1062,7 +1148,7 @@
       <c r="F21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="12"/>
+      <c r="G21" s="16"/>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1072,7 +1158,7 @@
       <c r="C22" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="15" t="s">
         <v>48</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -1081,7 +1167,7 @@
       <c r="F22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="12"/>
+      <c r="G22" s="16"/>
       <c r="H22" s="12" t="s">
         <v>72</v>
       </c>
@@ -1093,12 +1179,12 @@
       <c r="C23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="15" t="s">
         <v>49</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="12"/>
+      <c r="G23" s="16"/>
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1108,12 +1194,12 @@
       <c r="C24" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="18" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="9"/>
     </row>
   </sheetData>

--- a/Banco-dados/Dicionário de Dados.xlsx
+++ b/Banco-dados/Dicionário de Dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranye\Documents\control-block\Banco-dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF193C03-2625-461F-8DC5-A9AEB884E64B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC066A8E-302C-4712-8DE9-2FFA93B46951}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Entidade</t>
   </si>
@@ -172,12 +172,6 @@
   </si>
   <si>
     <t>fkSensores</t>
-  </si>
-  <si>
-    <t>tipo_sensor_entrada</t>
-  </si>
-  <si>
-    <t>tipo_sensor_saida</t>
   </si>
   <si>
     <t>Data</t>
@@ -232,22 +226,64 @@
     <t>Horário de registro do evento</t>
   </si>
   <si>
-    <t>Tipo de evento registrado (Entrada ou Saída)</t>
-  </si>
-  <si>
     <t>Data em que o evento foi registrado</t>
   </si>
   <si>
     <t>Identificador do sensor responsável pelo registro</t>
   </si>
   <si>
-    <t>Identificador do tipo de sensor</t>
-  </si>
-  <si>
     <t>Chave estrangeira responsável pela identificação do sensor instalado.</t>
   </si>
   <si>
     <t>O identificador do evento deverá armazenar um número inteiro e único.</t>
+  </si>
+  <si>
+    <t>Nome de usuário do gerente</t>
+  </si>
+  <si>
+    <t>usuario_gerente</t>
+  </si>
+  <si>
+    <t>Tipo de sensor responsável pelo registro do evento</t>
+  </si>
+  <si>
+    <t>tipo_sensor</t>
+  </si>
+  <si>
+    <t>Sem restrições</t>
+  </si>
+  <si>
+    <t>Data do registro captado pelo sensor</t>
+  </si>
+  <si>
+    <t>Identificação do tipo de sensor</t>
+  </si>
+  <si>
+    <t>Tipo de evento registrado</t>
+  </si>
+  <si>
+    <t>Identificação do evento (0 = Objeto não detectado / 1 = Objeto detectado)</t>
+  </si>
+  <si>
+    <t>Data em que o evento do registrado</t>
+  </si>
+  <si>
+    <t>Gerentes</t>
+  </si>
+  <si>
+    <t>Indefinido</t>
+  </si>
+  <si>
+    <t>Tabela para armazer dados dos Gerentes</t>
+  </si>
+  <si>
+    <t>Tabela para armazer dados dos Sensores</t>
+  </si>
+  <si>
+    <t>Tabela para armazer dados das Lojas</t>
+  </si>
+  <si>
+    <t>Tabela para armazer dados dos Eventos registrados</t>
   </si>
 </sst>
 </file>
@@ -404,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -462,6 +498,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,7 +791,7 @@
   <dimension ref="B1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,13 +829,17 @@
     </row>
     <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="13"/>
+        <v>80</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="D3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="F3" s="13" t="s">
         <v>6</v>
       </c>
@@ -801,11 +851,15 @@
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="D4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>81</v>
+      </c>
       <c r="F4" s="13" t="s">
         <v>6</v>
       </c>
@@ -817,11 +871,15 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>81</v>
+      </c>
       <c r="F5" s="13" t="s">
         <v>6</v>
       </c>
@@ -833,11 +891,15 @@
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="F6" s="14" t="s">
         <v>6</v>
       </c>
@@ -882,13 +944,13 @@
         <v>28</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -905,13 +967,13 @@
         <v>27</v>
       </c>
       <c r="F10" s="7">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -919,288 +981,322 @@
         <v>13</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="7">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="7">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="G12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="7">
+        <v>20</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="G14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E18" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="9" t="s">
+      <c r="F18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="H18" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="F19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="12"/>
+      <c r="H19" s="11" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>68</v>
+      <c r="C20" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="F20" s="7">
+        <v>10</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>69</v>
+      <c r="C21" s="22" t="s">
+        <v>65</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="12"/>
+        <v>64</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="22" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>70</v>
+      <c r="C22" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="16"/>
+        <v>54</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="H22" s="12" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>71</v>
+      <c r="C23" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="D23" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="12"/>
+      <c r="F23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="24" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>71</v>
+      <c r="C24" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
